--- a/TA bab 1-4/learndata movement graphic.xlsx
+++ b/TA bab 1-4/learndata movement graphic.xlsx
@@ -519,28 +519,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>2391.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2319.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2463.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2463.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2463.08</c:v>
+                  <c:v>2391.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2463.08</c:v>
+                  <c:v>2391.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2319.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2391.46</c:v>
+                  <c:v>2319.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2468.9899999999998</c:v>
@@ -549,10 +549,10 @@
                   <c:v>2463.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2391.46</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2391.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2468.9899999999998</c:v>
@@ -564,55 +564,55 @@
                   <c:v>2889.32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2888.96</c:v>
+                  <c:v>2739.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2811.36</c:v>
+                  <c:v>2739.45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2889.15</c:v>
+                  <c:v>2883.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3057.5</c:v>
+                  <c:v>2913.69</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>2889.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2889.08</c:v>
+                  <c:v>2883.04</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2985.59</c:v>
+                  <c:v>2889.41</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2883.47</c:v>
+                  <c:v>2738.99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2883.38</c:v>
+                  <c:v>2883.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2985.9</c:v>
+                  <c:v>2811.22</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>2883.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2883.45</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>2913.53</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>2889.24</c:v>
+                  <c:v>2882.99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2811.46</c:v>
+                  <c:v>2739.23</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2883.21</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3064.36</c:v>
+                  <c:v>2889.46</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3058.45</c:v>
+                  <c:v>2811.27</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2883.09</c:v>
@@ -621,22 +621,22 @@
                   <c:v>2463.08</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2463.08</c:v>
+                  <c:v>2391.46</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2391.09</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>2391.46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2319.13</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2463.08</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2463.08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2391.46</c:v>
@@ -645,22 +645,22 @@
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2463.08</c:v>
+                  <c:v>2319.13</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2319.13</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2463.08</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2883.19</c:v>
+                  <c:v>2739.19</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2889.32</c:v>
+                  <c:v>2883.02</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2888.96</c:v>
@@ -672,10 +672,10 @@
                   <c:v>2889.15</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3057.5</c:v>
+                  <c:v>2811.48</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2889.5</c:v>
+                  <c:v>2811.11</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>2889.08</c:v>
@@ -696,7 +696,7 @@
                   <c:v>2883.45</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2913.53</c:v>
+                  <c:v>2739.31</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>2889.24</c:v>
@@ -705,19 +705,19 @@
                   <c:v>2811.46</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2883.21</c:v>
+                  <c:v>2810.97</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>3064.36</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3058.45</c:v>
+                  <c:v>2889</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2883.09</c:v>
+                  <c:v>2810.98</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2463.08</c:v>
+                  <c:v>2391.09</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>2463.08</c:v>
@@ -738,82 +738,82 @@
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>2319.13</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>2391.46</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>2468.9899999999998</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>2463.08</c:v>
+                  <c:v>2391.09</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2468.9899999999998</c:v>
+                  <c:v>2391.09</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2468.9899999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2883.19</c:v>
+                  <c:v>2811.14</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2889.32</c:v>
+                  <c:v>2811.22</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2888.96</c:v>
+                  <c:v>2810.99</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2811.36</c:v>
+                  <c:v>2811.14</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2889.15</c:v>
+                  <c:v>2810.92</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3057.5</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2889.5</c:v>
+                  <c:v>2810.93</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2889.08</c:v>
+                  <c:v>2739.09</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2985.59</c:v>
+                  <c:v>2739.36</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2883.47</c:v>
+                  <c:v>2811.05</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2883.38</c:v>
+                  <c:v>2739.1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2985.9</c:v>
+                  <c:v>2889.19</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2883.45</c:v>
+                  <c:v>2811.02</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>2913.53</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2889.24</c:v>
+                  <c:v>2889.1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2811.46</c:v>
+                  <c:v>2810.95</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2883.21</c:v>
+                  <c:v>2739.26</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3064.36</c:v>
+                  <c:v>2889.33</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>3058.45</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2883.09</c:v>
+                  <c:v>2811.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,8 +1024,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>My Bot 2</a:t>
+              <a:t>My</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Bot 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1407,7 +1412,7 @@
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2466.38</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2466.38</c:v>
@@ -1416,22 +1421,22 @@
                   <c:v>2466.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2466.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2393.92</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2466.38</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2394.0300000000002</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2472.3200000000002</c:v>
@@ -1440,61 +1445,61 @@
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3067.27</c:v>
+                  <c:v>2814.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2892.01</c:v>
+                  <c:v>2742.38</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2892.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2916.83</c:v>
+                  <c:v>2886.44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2892.3</c:v>
+                  <c:v>2813.98</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2814.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2892.37</c:v>
+                  <c:v>2814.47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2892.04</c:v>
+                  <c:v>2813.87</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2814.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2814.37</c:v>
+                  <c:v>2742.29</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2988.6</c:v>
+                  <c:v>2891.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3066.69</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2886.39</c:v>
+                  <c:v>2814.47</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2916.65</c:v>
+                  <c:v>2892.34</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2886.21</c:v>
+                  <c:v>2742.25</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2988.72</c:v>
+                  <c:v>2813.92</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2989.28</c:v>
+                  <c:v>2741.85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2892.16</c:v>
+                  <c:v>2742.14</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>3067.19</c:v>
@@ -1503,13 +1508,13 @@
                   <c:v>2814.42</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2466.38</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2466.38</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2466.38</c:v>
@@ -1518,13 +1523,13 @@
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2393.92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2466.38</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2466.38</c:v>
@@ -1536,19 +1541,19 @@
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3067.27</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2892.01</c:v>
+                  <c:v>2886.42</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2892.29</c:v>
+                  <c:v>2742.38</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2916.83</c:v>
@@ -1557,7 +1562,7 @@
                   <c:v>2892.3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2814.45</c:v>
+                  <c:v>2741.95</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>2892.37</c:v>
@@ -1566,16 +1571,16 @@
                   <c:v>2892.04</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2814.21</c:v>
+                  <c:v>2742.34</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2814.37</c:v>
+                  <c:v>2814.07</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2988.6</c:v>
+                  <c:v>2886.46</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3066.69</c:v>
+                  <c:v>2892.3</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>2886.39</c:v>
@@ -1590,82 +1595,82 @@
                   <c:v>2988.72</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2989.28</c:v>
+                  <c:v>2886.47</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>2892.16</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3067.19</c:v>
+                  <c:v>2886.19</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2814.42</c:v>
+                  <c:v>2814.02</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>2322.21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2393.92</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2322.21</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>2466.38</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2466.38</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2466.38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2393.92</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2466.38</c:v>
+                  <c:v>2322.21</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>2394.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2466.38</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2472.3200000000002</c:v>
+                  <c:v>2393.92</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2472.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3067.27</c:v>
+                  <c:v>2742.25</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>2892.01</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2892.29</c:v>
+                  <c:v>2892.09</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2916.83</c:v>
+                  <c:v>2742.08</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2892.3</c:v>
+                  <c:v>2892.28</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2814.45</c:v>
+                  <c:v>2814.24</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2892.37</c:v>
+                  <c:v>2814.24</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2892.04</c:v>
+                  <c:v>2886.43</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2814.21</c:v>
+                  <c:v>2814.1</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>2814.37</c:v>
@@ -1674,31 +1679,31 @@
                   <c:v>2988.6</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3066.69</c:v>
+                  <c:v>2814.12</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2886.39</c:v>
+                  <c:v>2814.44</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2916.65</c:v>
+                  <c:v>2814.35</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2886.21</c:v>
+                  <c:v>2814.32</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2988.72</c:v>
+                  <c:v>2886.25</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>2989.28</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2892.16</c:v>
+                  <c:v>2814.11</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3067.19</c:v>
+                  <c:v>2814</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2814.42</c:v>
+                  <c:v>2814.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,7 +1711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B75D-46F4-9C4C-76B5A40FCFE5}"/>
+              <c16:uniqueId val="{00000000-A2C0-4616-918D-44C4D820D279}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1719,11 +1724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1472058367"/>
-        <c:axId val="1472062111"/>
+        <c:axId val="194036687"/>
+        <c:axId val="194035023"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1472058367"/>
+        <c:axId val="194036687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1472062111"/>
+        <c:crossAx val="194035023"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1774,7 +1779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1472062111"/>
+        <c:axId val="194035023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,7 +1830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1472058367"/>
+        <c:crossAx val="194036687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2289,16 +2294,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
+                  <c:v>2321.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2394.19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2394.19</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2471.92</c:v>
@@ -2307,85 +2312,85 @@
                   <c:v>2466.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2471.92</c:v>
+                  <c:v>2466.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2394.19</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2466.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2471.92</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2394.19</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2466.33</c:v>
+                  <c:v>2394.19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3072.56</c:v>
+                  <c:v>2995.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2994.78</c:v>
+                  <c:v>2916.97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3072.75</c:v>
+                  <c:v>2886.42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3067.44</c:v>
+                  <c:v>2814.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2994.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3073.15</c:v>
+                  <c:v>2994.53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3061.09</c:v>
+                  <c:v>2922.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3072.87</c:v>
+                  <c:v>2995.49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2995.36</c:v>
+                  <c:v>2923.17</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2994.6</c:v>
+                  <c:v>2989.13</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3066.75</c:v>
+                  <c:v>2994.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2995.1</c:v>
+                  <c:v>2742.31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3072.53</c:v>
+                  <c:v>2885.72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3066.62</c:v>
+                  <c:v>2923.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3067.43</c:v>
+                  <c:v>2994.85</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2995.29</c:v>
+                  <c:v>2995.18</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2994.71</c:v>
+                  <c:v>2994.55</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3073.04</c:v>
+                  <c:v>2916.93</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3073</c:v>
+                  <c:v>2742.26</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3073.45</c:v>
+                  <c:v>2813.95</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2394.19</c:v>
@@ -2394,7 +2399,7 @@
                   <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2471.92</c:v>
+                  <c:v>2394.19</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2394.19</c:v>
@@ -2403,16 +2408,16 @@
                   <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2466.33</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2394.19</c:v>
+                  <c:v>2393.86</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2466.33</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2471.92</c:v>
@@ -2421,7 +2426,7 @@
                   <c:v>2394.19</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2471.92</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2466.33</c:v>
@@ -2430,19 +2435,19 @@
                   <c:v>3072.56</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2994.78</c:v>
+                  <c:v>2923.21</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3072.75</c:v>
+                  <c:v>2922.62</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3067.44</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2994.83</c:v>
+                  <c:v>2923.01</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3073.15</c:v>
+                  <c:v>2995.03</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3061.09</c:v>
@@ -2451,82 +2456,82 @@
                   <c:v>3072.87</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2995.36</c:v>
+                  <c:v>2989.43</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2994.6</c:v>
+                  <c:v>2994.52</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3066.75</c:v>
+                  <c:v>3066.57</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2995.1</c:v>
+                  <c:v>2995.09</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3072.53</c:v>
+                  <c:v>2994.78</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>3066.62</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3067.43</c:v>
+                  <c:v>2922.85</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2995.29</c:v>
+                  <c:v>2995</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2994.71</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3073.04</c:v>
+                  <c:v>2995.03</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3073</c:v>
+                  <c:v>2994.8</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>3073.45</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2394.19</c:v>
+                  <c:v>2393.86</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2471.92</c:v>
+                  <c:v>2321.89</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2471.92</c:v>
+                  <c:v>2393.86</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2394.19</c:v>
+                  <c:v>2393.86</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>2321.89</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>2466.33</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2471.92</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2394.19</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>2393.86</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2393.86</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2393.86</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2466.33</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>2471.92</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>2394.19</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>2471.92</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2466.33</c:v>
-                </c:pt>
                 <c:pt idx="79">
-                  <c:v>3072.56</c:v>
+                  <c:v>2922.58</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>2994.78</c:v>
@@ -2535,19 +2540,19 @@
                   <c:v>3072.75</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3067.44</c:v>
+                  <c:v>3066.51</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2994.83</c:v>
+                  <c:v>2994.8</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3073.15</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3061.09</c:v>
+                  <c:v>2994.67</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3072.87</c:v>
+                  <c:v>1813.25</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>2995.36</c:v>
@@ -2565,7 +2570,7 @@
                   <c:v>3072.53</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3066.62</c:v>
+                  <c:v>2994.72</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>3067.43</c:v>
@@ -2574,7 +2579,7 @@
                   <c:v>2995.29</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2994.71</c:v>
+                  <c:v>1806.98</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>3073.04</c:v>
@@ -2583,7 +2588,7 @@
                   <c:v>3073</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3073.45</c:v>
+                  <c:v>2994.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2596,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C1B-4629-BC37-844F173BBC6C}"/>
+              <c16:uniqueId val="{00000000-FEAB-4CEA-B77E-D7969CCFA4A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2604,11 +2609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1486378511"/>
-        <c:axId val="1486380591"/>
+        <c:axId val="179603279"/>
+        <c:axId val="179600783"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1486378511"/>
+        <c:axId val="179603279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1486380591"/>
+        <c:crossAx val="179600783"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1486380591"/>
+        <c:axId val="179600783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1486378511"/>
+        <c:crossAx val="179603279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4462,19 +4467,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4492,19 +4497,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>390524</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4787,7 +4792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="XEK1" workbookViewId="0">
+      <selection activeCell="XEL16" sqref="XEL16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4799,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB39" sqref="AB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2463.08</v>
+        <v>2391.46</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -4863,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>2394.19</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -4874,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2463.08</v>
+        <v>2319.13</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -4883,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>2466.38</v>
+        <v>2322.21</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
@@ -4892,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>2471.92</v>
+        <v>2394.19</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -4903,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2468.9899999999998</v>
+        <v>2463.08</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -4950,7 +4957,7 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>2394.19</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -4961,7 +4968,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>2463.08</v>
+        <v>2391.09</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -4970,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>2472.3200000000002</v>
+        <v>2466.38</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -4990,7 +4997,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>2463.08</v>
+        <v>2391.46</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -4999,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>2472.3200000000002</v>
+        <v>2322.21</v>
       </c>
       <c r="J7" t="s">
         <v>2</v>
@@ -5019,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2468.9899999999998</v>
+        <v>2319.13</v>
       </c>
       <c r="F8" t="s">
         <v>1</v>
@@ -5028,7 +5035,7 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>2393.92</v>
+        <v>2322.21</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
@@ -5037,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>2471.92</v>
+        <v>2466.33</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -5048,7 +5055,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>2391.46</v>
+        <v>2319.13</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -5066,7 +5073,7 @@
         <v>8</v>
       </c>
       <c r="L9">
-        <v>2394.19</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -5086,7 +5093,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>2466.38</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -5115,7 +5122,7 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>2394.0300000000002</v>
+        <v>2322.21</v>
       </c>
       <c r="J11" t="s">
         <v>2</v>
@@ -5124,7 +5131,7 @@
         <v>10</v>
       </c>
       <c r="L11">
-        <v>2471.92</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -5135,7 +5142,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>2468.9899999999998</v>
+        <v>2391.46</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -5153,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="L12">
-        <v>2394.19</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -5164,7 +5171,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>2468.9899999999998</v>
+        <v>2391.09</v>
       </c>
       <c r="F13" t="s">
         <v>1</v>
@@ -5202,7 +5209,7 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <v>2472.3200000000002</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J14" t="s">
         <v>2</v>
@@ -5211,7 +5218,7 @@
         <v>13</v>
       </c>
       <c r="L14">
-        <v>2466.33</v>
+        <v>2394.19</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -5231,7 +5238,7 @@
         <v>14</v>
       </c>
       <c r="H15">
-        <v>3067.27</v>
+        <v>2814.34</v>
       </c>
       <c r="J15" t="s">
         <v>2</v>
@@ -5240,7 +5247,7 @@
         <v>14</v>
       </c>
       <c r="L15">
-        <v>3072.56</v>
+        <v>2995.4</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -5260,7 +5267,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <v>2892.01</v>
+        <v>2742.38</v>
       </c>
       <c r="J16" t="s">
         <v>2</v>
@@ -5269,7 +5276,7 @@
         <v>15</v>
       </c>
       <c r="L16">
-        <v>2994.78</v>
+        <v>2916.97</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -5280,7 +5287,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>2888.96</v>
+        <v>2739.03</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -5298,7 +5305,7 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>3072.75</v>
+        <v>2886.42</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -5309,7 +5316,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>2811.36</v>
+        <v>2739.45</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -5318,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="H18">
-        <v>2916.83</v>
+        <v>2886.44</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
@@ -5327,7 +5334,7 @@
         <v>17</v>
       </c>
       <c r="L18">
-        <v>3067.44</v>
+        <v>2814.02</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -5338,7 +5345,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>2889.15</v>
+        <v>2883.01</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
@@ -5347,7 +5354,7 @@
         <v>18</v>
       </c>
       <c r="H19">
-        <v>2892.3</v>
+        <v>2813.98</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
@@ -5367,7 +5374,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>3057.5</v>
+        <v>2913.69</v>
       </c>
       <c r="F20" t="s">
         <v>1</v>
@@ -5385,7 +5392,7 @@
         <v>19</v>
       </c>
       <c r="L20">
-        <v>3073.15</v>
+        <v>2994.53</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -5405,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="H21">
-        <v>2892.37</v>
+        <v>2814.47</v>
       </c>
       <c r="J21" t="s">
         <v>2</v>
@@ -5414,7 +5421,7 @@
         <v>20</v>
       </c>
       <c r="L21">
-        <v>3061.09</v>
+        <v>2922.5</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -5425,7 +5432,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>2889.08</v>
+        <v>2883.04</v>
       </c>
       <c r="F22" t="s">
         <v>1</v>
@@ -5434,7 +5441,7 @@
         <v>21</v>
       </c>
       <c r="H22">
-        <v>2892.04</v>
+        <v>2813.87</v>
       </c>
       <c r="J22" t="s">
         <v>2</v>
@@ -5443,7 +5450,7 @@
         <v>21</v>
       </c>
       <c r="L22">
-        <v>3072.87</v>
+        <v>2995.49</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -5454,7 +5461,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>2985.59</v>
+        <v>2889.41</v>
       </c>
       <c r="F23" t="s">
         <v>1</v>
@@ -5472,7 +5479,7 @@
         <v>22</v>
       </c>
       <c r="L23">
-        <v>2995.36</v>
+        <v>2923.17</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -5483,7 +5490,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>2883.47</v>
+        <v>2738.99</v>
       </c>
       <c r="F24" t="s">
         <v>1</v>
@@ -5492,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="H24">
-        <v>2814.37</v>
+        <v>2742.29</v>
       </c>
       <c r="J24" t="s">
         <v>2</v>
@@ -5501,7 +5508,7 @@
         <v>23</v>
       </c>
       <c r="L24">
-        <v>2994.6</v>
+        <v>2989.13</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -5512,7 +5519,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>2883.38</v>
+        <v>2883.21</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -5521,7 +5528,7 @@
         <v>24</v>
       </c>
       <c r="H25">
-        <v>2988.6</v>
+        <v>2891.92</v>
       </c>
       <c r="J25" t="s">
         <v>2</v>
@@ -5530,7 +5537,7 @@
         <v>24</v>
       </c>
       <c r="L25">
-        <v>3066.75</v>
+        <v>2994.78</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -5541,7 +5548,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>2985.9</v>
+        <v>2811.22</v>
       </c>
       <c r="F26" t="s">
         <v>1</v>
@@ -5559,7 +5566,7 @@
         <v>25</v>
       </c>
       <c r="L26">
-        <v>2995.1</v>
+        <v>2742.31</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -5570,7 +5577,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>2883.45</v>
+        <v>2883.34</v>
       </c>
       <c r="F27" t="s">
         <v>1</v>
@@ -5579,7 +5586,7 @@
         <v>26</v>
       </c>
       <c r="H27">
-        <v>2886.39</v>
+        <v>2814.47</v>
       </c>
       <c r="J27" t="s">
         <v>2</v>
@@ -5588,7 +5595,7 @@
         <v>26</v>
       </c>
       <c r="L27">
-        <v>3072.53</v>
+        <v>2885.72</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -5599,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>2913.53</v>
+        <v>2883.45</v>
       </c>
       <c r="F28" t="s">
         <v>1</v>
@@ -5608,7 +5615,7 @@
         <v>27</v>
       </c>
       <c r="H28">
-        <v>2916.65</v>
+        <v>2892.34</v>
       </c>
       <c r="J28" t="s">
         <v>2</v>
@@ -5617,7 +5624,7 @@
         <v>27</v>
       </c>
       <c r="L28">
-        <v>3066.62</v>
+        <v>2923.26</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -5628,7 +5635,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>2889.24</v>
+        <v>2882.99</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
@@ -5637,7 +5644,7 @@
         <v>28</v>
       </c>
       <c r="H29">
-        <v>2886.21</v>
+        <v>2742.25</v>
       </c>
       <c r="J29" t="s">
         <v>2</v>
@@ -5646,7 +5653,7 @@
         <v>28</v>
       </c>
       <c r="L29">
-        <v>3067.43</v>
+        <v>2994.85</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -5657,7 +5664,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>2811.46</v>
+        <v>2739.23</v>
       </c>
       <c r="F30" t="s">
         <v>1</v>
@@ -5666,7 +5673,7 @@
         <v>29</v>
       </c>
       <c r="H30">
-        <v>2988.72</v>
+        <v>2813.92</v>
       </c>
       <c r="J30" t="s">
         <v>2</v>
@@ -5675,7 +5682,7 @@
         <v>29</v>
       </c>
       <c r="L30">
-        <v>2995.29</v>
+        <v>2995.18</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -5695,7 +5702,7 @@
         <v>30</v>
       </c>
       <c r="H31">
-        <v>2989.28</v>
+        <v>2741.85</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
@@ -5704,7 +5711,7 @@
         <v>30</v>
       </c>
       <c r="L31">
-        <v>2994.71</v>
+        <v>2994.55</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -5715,7 +5722,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>3064.36</v>
+        <v>2889.46</v>
       </c>
       <c r="F32" t="s">
         <v>1</v>
@@ -5724,7 +5731,7 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>2892.16</v>
+        <v>2742.14</v>
       </c>
       <c r="J32" t="s">
         <v>2</v>
@@ -5733,7 +5740,7 @@
         <v>31</v>
       </c>
       <c r="L32">
-        <v>3073.04</v>
+        <v>2916.93</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -5744,7 +5751,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>3058.45</v>
+        <v>2811.27</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
@@ -5762,7 +5769,7 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <v>3073</v>
+        <v>2742.26</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -5791,7 +5798,7 @@
         <v>33</v>
       </c>
       <c r="L34">
-        <v>3073.45</v>
+        <v>2813.95</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -5811,7 +5818,7 @@
         <v>34</v>
       </c>
       <c r="H35">
-        <v>2472.3200000000002</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J35" t="s">
         <v>2</v>
@@ -5831,7 +5838,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>2463.08</v>
+        <v>2391.46</v>
       </c>
       <c r="F36" t="s">
         <v>1</v>
@@ -5860,7 +5867,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>2468.9899999999998</v>
+        <v>2391.09</v>
       </c>
       <c r="F37" t="s">
         <v>1</v>
@@ -5869,7 +5876,7 @@
         <v>36</v>
       </c>
       <c r="H37">
-        <v>2466.38</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J37" t="s">
         <v>2</v>
@@ -5878,7 +5885,7 @@
         <v>36</v>
       </c>
       <c r="L37">
-        <v>2471.92</v>
+        <v>2394.19</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -5918,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>2463.08</v>
+        <v>2391.46</v>
       </c>
       <c r="F39" t="s">
         <v>1</v>
@@ -5947,7 +5954,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>2463.08</v>
+        <v>2319.13</v>
       </c>
       <c r="F40" t="s">
         <v>1</v>
@@ -5956,7 +5963,7 @@
         <v>39</v>
       </c>
       <c r="H40">
-        <v>2472.3200000000002</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J40" t="s">
         <v>2</v>
@@ -5965,7 +5972,7 @@
         <v>39</v>
       </c>
       <c r="L40">
-        <v>2466.33</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -5976,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>2468.9899999999998</v>
+        <v>2463.08</v>
       </c>
       <c r="F41" t="s">
         <v>1</v>
@@ -6014,7 +6021,7 @@
         <v>41</v>
       </c>
       <c r="H42">
-        <v>2472.3200000000002</v>
+        <v>2466.38</v>
       </c>
       <c r="J42" t="s">
         <v>2</v>
@@ -6023,7 +6030,7 @@
         <v>41</v>
       </c>
       <c r="L42">
-        <v>2394.19</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -6052,7 +6059,7 @@
         <v>42</v>
       </c>
       <c r="L43">
-        <v>2466.33</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -6063,7 +6070,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>2463.08</v>
+        <v>2319.13</v>
       </c>
       <c r="F44" t="s">
         <v>1</v>
@@ -6092,7 +6099,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>2468.9899999999998</v>
+        <v>2319.13</v>
       </c>
       <c r="F45" t="s">
         <v>1</v>
@@ -6130,7 +6137,7 @@
         <v>45</v>
       </c>
       <c r="H46">
-        <v>2472.3200000000002</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J46" t="s">
         <v>2</v>
@@ -6139,7 +6146,7 @@
         <v>45</v>
       </c>
       <c r="L46">
-        <v>2471.92</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -6150,7 +6157,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>2468.9899999999998</v>
+        <v>2463.08</v>
       </c>
       <c r="F47" t="s">
         <v>1</v>
@@ -6159,7 +6166,7 @@
         <v>46</v>
       </c>
       <c r="H47">
-        <v>2472.3200000000002</v>
+        <v>2322.21</v>
       </c>
       <c r="J47" t="s">
         <v>2</v>
@@ -6179,7 +6186,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>2883.19</v>
+        <v>2739.19</v>
       </c>
       <c r="F48" t="s">
         <v>1</v>
@@ -6208,7 +6215,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>2889.32</v>
+        <v>2883.02</v>
       </c>
       <c r="F49" t="s">
         <v>1</v>
@@ -6217,7 +6224,7 @@
         <v>48</v>
       </c>
       <c r="H49">
-        <v>2892.01</v>
+        <v>2886.42</v>
       </c>
       <c r="J49" t="s">
         <v>2</v>
@@ -6226,7 +6233,7 @@
         <v>48</v>
       </c>
       <c r="L49">
-        <v>2994.78</v>
+        <v>2923.21</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -6246,7 +6253,7 @@
         <v>49</v>
       </c>
       <c r="H50">
-        <v>2892.29</v>
+        <v>2742.38</v>
       </c>
       <c r="J50" t="s">
         <v>2</v>
@@ -6255,7 +6262,7 @@
         <v>49</v>
       </c>
       <c r="L50">
-        <v>3072.75</v>
+        <v>2922.62</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -6313,7 +6320,7 @@
         <v>51</v>
       </c>
       <c r="L52">
-        <v>2994.83</v>
+        <v>2923.01</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -6324,7 +6331,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>3057.5</v>
+        <v>2811.48</v>
       </c>
       <c r="F53" t="s">
         <v>1</v>
@@ -6333,7 +6340,7 @@
         <v>52</v>
       </c>
       <c r="H53">
-        <v>2814.45</v>
+        <v>2741.95</v>
       </c>
       <c r="J53" t="s">
         <v>2</v>
@@ -6342,7 +6349,7 @@
         <v>52</v>
       </c>
       <c r="L53">
-        <v>3073.15</v>
+        <v>2995.03</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -6353,7 +6360,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>2889.5</v>
+        <v>2811.11</v>
       </c>
       <c r="F54" t="s">
         <v>1</v>
@@ -6420,7 +6427,7 @@
         <v>55</v>
       </c>
       <c r="H56">
-        <v>2814.21</v>
+        <v>2742.34</v>
       </c>
       <c r="J56" t="s">
         <v>2</v>
@@ -6429,7 +6436,7 @@
         <v>55</v>
       </c>
       <c r="L56">
-        <v>2995.36</v>
+        <v>2989.43</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -6449,7 +6456,7 @@
         <v>56</v>
       </c>
       <c r="H57">
-        <v>2814.37</v>
+        <v>2814.07</v>
       </c>
       <c r="J57" t="s">
         <v>2</v>
@@ -6458,7 +6465,7 @@
         <v>56</v>
       </c>
       <c r="L57">
-        <v>2994.6</v>
+        <v>2994.52</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -6478,7 +6485,7 @@
         <v>57</v>
       </c>
       <c r="H58">
-        <v>2988.6</v>
+        <v>2886.46</v>
       </c>
       <c r="J58" t="s">
         <v>2</v>
@@ -6487,7 +6494,7 @@
         <v>57</v>
       </c>
       <c r="L58">
-        <v>3066.75</v>
+        <v>3066.57</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -6507,7 +6514,7 @@
         <v>58</v>
       </c>
       <c r="H59">
-        <v>3066.69</v>
+        <v>2892.3</v>
       </c>
       <c r="J59" t="s">
         <v>2</v>
@@ -6516,7 +6523,7 @@
         <v>58</v>
       </c>
       <c r="L59">
-        <v>2995.1</v>
+        <v>2995.09</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -6545,7 +6552,7 @@
         <v>59</v>
       </c>
       <c r="L60">
-        <v>3072.53</v>
+        <v>2994.78</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -6556,7 +6563,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>2913.53</v>
+        <v>2739.31</v>
       </c>
       <c r="F61" t="s">
         <v>1</v>
@@ -6603,7 +6610,7 @@
         <v>61</v>
       </c>
       <c r="L62">
-        <v>3067.43</v>
+        <v>2922.85</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -6632,7 +6639,7 @@
         <v>62</v>
       </c>
       <c r="L63">
-        <v>2995.29</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -6643,7 +6650,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>2883.21</v>
+        <v>2810.97</v>
       </c>
       <c r="F64" t="s">
         <v>1</v>
@@ -6652,7 +6659,7 @@
         <v>63</v>
       </c>
       <c r="H64">
-        <v>2989.28</v>
+        <v>2886.47</v>
       </c>
       <c r="J64" t="s">
         <v>2</v>
@@ -6690,7 +6697,7 @@
         <v>64</v>
       </c>
       <c r="L65">
-        <v>3073.04</v>
+        <v>2995.03</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -6701,7 +6708,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>3058.45</v>
+        <v>2889</v>
       </c>
       <c r="F66" t="s">
         <v>1</v>
@@ -6710,7 +6717,7 @@
         <v>65</v>
       </c>
       <c r="H66">
-        <v>3067.19</v>
+        <v>2886.19</v>
       </c>
       <c r="J66" t="s">
         <v>2</v>
@@ -6719,7 +6726,7 @@
         <v>65</v>
       </c>
       <c r="L66">
-        <v>3073</v>
+        <v>2994.8</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -6730,7 +6737,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>2883.09</v>
+        <v>2810.98</v>
       </c>
       <c r="F67" t="s">
         <v>1</v>
@@ -6739,7 +6746,7 @@
         <v>66</v>
       </c>
       <c r="H67">
-        <v>2814.42</v>
+        <v>2814.02</v>
       </c>
       <c r="J67" t="s">
         <v>2</v>
@@ -6759,7 +6766,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>2463.08</v>
+        <v>2391.09</v>
       </c>
       <c r="F68" t="s">
         <v>1</v>
@@ -6768,7 +6775,7 @@
         <v>67</v>
       </c>
       <c r="H68">
-        <v>2472.3200000000002</v>
+        <v>2394.0300000000002</v>
       </c>
       <c r="J68" t="s">
         <v>2</v>
@@ -6777,7 +6784,7 @@
         <v>67</v>
       </c>
       <c r="L68">
-        <v>2394.19</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -6797,7 +6804,7 @@
         <v>68</v>
       </c>
       <c r="H69">
-        <v>2466.38</v>
+        <v>2322.21</v>
       </c>
       <c r="J69" t="s">
         <v>2</v>
@@ -6806,7 +6813,7 @@
         <v>68</v>
       </c>
       <c r="L69">
-        <v>2471.92</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -6826,7 +6833,7 @@
         <v>69</v>
       </c>
       <c r="H70">
-        <v>2466.38</v>
+        <v>2393.92</v>
       </c>
       <c r="J70" t="s">
         <v>2</v>
@@ -6835,7 +6842,7 @@
         <v>69</v>
       </c>
       <c r="L70">
-        <v>2471.92</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -6855,7 +6862,7 @@
         <v>70</v>
       </c>
       <c r="H71">
-        <v>2466.38</v>
+        <v>2322.21</v>
       </c>
       <c r="J71" t="s">
         <v>2</v>
@@ -6864,7 +6871,7 @@
         <v>70</v>
       </c>
       <c r="L71">
-        <v>2394.19</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -6884,7 +6891,7 @@
         <v>71</v>
       </c>
       <c r="H72">
-        <v>2472.3200000000002</v>
+        <v>2466.38</v>
       </c>
       <c r="J72" t="s">
         <v>2</v>
@@ -6922,7 +6929,7 @@
         <v>72</v>
       </c>
       <c r="L73">
-        <v>2466.33</v>
+        <v>2321.89</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -6942,7 +6949,7 @@
         <v>73</v>
       </c>
       <c r="H74">
-        <v>2393.92</v>
+        <v>2322.21</v>
       </c>
       <c r="J74" t="s">
         <v>2</v>
@@ -6951,7 +6958,7 @@
         <v>73</v>
       </c>
       <c r="L74">
-        <v>2471.92</v>
+        <v>2466.33</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -6962,7 +6969,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>2391.46</v>
+        <v>2319.13</v>
       </c>
       <c r="F75" t="s">
         <v>1</v>
@@ -6971,7 +6978,7 @@
         <v>74</v>
       </c>
       <c r="H75">
-        <v>2472.3200000000002</v>
+        <v>2322.21</v>
       </c>
       <c r="J75" t="s">
         <v>2</v>
@@ -6991,7 +6998,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>2468.9899999999998</v>
+        <v>2391.46</v>
       </c>
       <c r="F76" t="s">
         <v>1</v>
@@ -7000,7 +7007,7 @@
         <v>75</v>
       </c>
       <c r="H76">
-        <v>2466.38</v>
+        <v>2322.21</v>
       </c>
       <c r="J76" t="s">
         <v>2</v>
@@ -7009,7 +7016,7 @@
         <v>75</v>
       </c>
       <c r="L76">
-        <v>2466.33</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -7020,7 +7027,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>2463.08</v>
+        <v>2391.09</v>
       </c>
       <c r="F77" t="s">
         <v>1</v>
@@ -7038,7 +7045,7 @@
         <v>76</v>
       </c>
       <c r="L77">
-        <v>2471.92</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -7058,7 +7065,7 @@
         <v>77</v>
       </c>
       <c r="H78">
-        <v>2472.3200000000002</v>
+        <v>2466.38</v>
       </c>
       <c r="J78" t="s">
         <v>2</v>
@@ -7067,7 +7074,7 @@
         <v>77</v>
       </c>
       <c r="L78">
-        <v>2394.19</v>
+        <v>2393.86</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -7078,7 +7085,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>2468.9899999999998</v>
+        <v>2391.09</v>
       </c>
       <c r="F79" t="s">
         <v>1</v>
@@ -7087,7 +7094,7 @@
         <v>78</v>
       </c>
       <c r="H79">
-        <v>2472.3200000000002</v>
+        <v>2393.92</v>
       </c>
       <c r="J79" t="s">
         <v>2</v>
@@ -7096,7 +7103,7 @@
         <v>78</v>
       </c>
       <c r="L79">
-        <v>2471.92</v>
+        <v>2466.33</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -7125,7 +7132,7 @@
         <v>79</v>
       </c>
       <c r="L80">
-        <v>2466.33</v>
+        <v>2394.19</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -7136,7 +7143,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>2883.19</v>
+        <v>2811.14</v>
       </c>
       <c r="F81" t="s">
         <v>1</v>
@@ -7145,7 +7152,7 @@
         <v>80</v>
       </c>
       <c r="H81">
-        <v>3067.27</v>
+        <v>2742.25</v>
       </c>
       <c r="J81" t="s">
         <v>2</v>
@@ -7154,7 +7161,7 @@
         <v>80</v>
       </c>
       <c r="L81">
-        <v>3072.56</v>
+        <v>2922.58</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -7165,7 +7172,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>2889.32</v>
+        <v>2811.22</v>
       </c>
       <c r="F82" t="s">
         <v>1</v>
@@ -7194,7 +7201,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>2888.96</v>
+        <v>2810.99</v>
       </c>
       <c r="F83" t="s">
         <v>1</v>
@@ -7203,7 +7210,7 @@
         <v>82</v>
       </c>
       <c r="H83">
-        <v>2892.29</v>
+        <v>2892.09</v>
       </c>
       <c r="J83" t="s">
         <v>2</v>
@@ -7223,7 +7230,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>2811.36</v>
+        <v>2811.14</v>
       </c>
       <c r="F84" t="s">
         <v>1</v>
@@ -7232,7 +7239,7 @@
         <v>83</v>
       </c>
       <c r="H84">
-        <v>2916.83</v>
+        <v>2742.08</v>
       </c>
       <c r="J84" t="s">
         <v>2</v>
@@ -7241,7 +7248,7 @@
         <v>83</v>
       </c>
       <c r="L84">
-        <v>3067.44</v>
+        <v>3066.51</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
@@ -7252,7 +7259,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>2889.15</v>
+        <v>2810.92</v>
       </c>
       <c r="F85" t="s">
         <v>1</v>
@@ -7261,7 +7268,7 @@
         <v>84</v>
       </c>
       <c r="H85">
-        <v>2892.3</v>
+        <v>2892.28</v>
       </c>
       <c r="J85" t="s">
         <v>2</v>
@@ -7270,7 +7277,7 @@
         <v>84</v>
       </c>
       <c r="L85">
-        <v>2994.83</v>
+        <v>2994.8</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
@@ -7290,7 +7297,7 @@
         <v>85</v>
       </c>
       <c r="H86">
-        <v>2814.45</v>
+        <v>2814.24</v>
       </c>
       <c r="J86" t="s">
         <v>2</v>
@@ -7310,7 +7317,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>2889.5</v>
+        <v>2810.93</v>
       </c>
       <c r="F87" t="s">
         <v>1</v>
@@ -7319,7 +7326,7 @@
         <v>86</v>
       </c>
       <c r="H87">
-        <v>2892.37</v>
+        <v>2814.24</v>
       </c>
       <c r="J87" t="s">
         <v>2</v>
@@ -7328,7 +7335,7 @@
         <v>86</v>
       </c>
       <c r="L87">
-        <v>3061.09</v>
+        <v>2994.67</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -7339,7 +7346,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>2889.08</v>
+        <v>2739.09</v>
       </c>
       <c r="F88" t="s">
         <v>1</v>
@@ -7348,7 +7355,7 @@
         <v>87</v>
       </c>
       <c r="H88">
-        <v>2892.04</v>
+        <v>2886.43</v>
       </c>
       <c r="J88" t="s">
         <v>2</v>
@@ -7357,7 +7364,7 @@
         <v>87</v>
       </c>
       <c r="L88">
-        <v>3072.87</v>
+        <v>1813.25</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -7368,7 +7375,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>2985.59</v>
+        <v>2739.36</v>
       </c>
       <c r="F89" t="s">
         <v>1</v>
@@ -7377,7 +7384,7 @@
         <v>88</v>
       </c>
       <c r="H89">
-        <v>2814.21</v>
+        <v>2814.1</v>
       </c>
       <c r="J89" t="s">
         <v>2</v>
@@ -7397,7 +7404,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>2883.47</v>
+        <v>2811.05</v>
       </c>
       <c r="F90" t="s">
         <v>1</v>
@@ -7426,7 +7433,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>2883.38</v>
+        <v>2739.1</v>
       </c>
       <c r="F91" t="s">
         <v>1</v>
@@ -7455,7 +7462,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>2985.9</v>
+        <v>2889.19</v>
       </c>
       <c r="F92" t="s">
         <v>1</v>
@@ -7464,7 +7471,7 @@
         <v>91</v>
       </c>
       <c r="H92">
-        <v>3066.69</v>
+        <v>2814.12</v>
       </c>
       <c r="J92" t="s">
         <v>2</v>
@@ -7484,7 +7491,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>2883.45</v>
+        <v>2811.02</v>
       </c>
       <c r="F93" t="s">
         <v>1</v>
@@ -7493,7 +7500,7 @@
         <v>92</v>
       </c>
       <c r="H93">
-        <v>2886.39</v>
+        <v>2814.44</v>
       </c>
       <c r="J93" t="s">
         <v>2</v>
@@ -7522,7 +7529,7 @@
         <v>93</v>
       </c>
       <c r="H94">
-        <v>2916.65</v>
+        <v>2814.35</v>
       </c>
       <c r="J94" t="s">
         <v>2</v>
@@ -7531,7 +7538,7 @@
         <v>93</v>
       </c>
       <c r="L94">
-        <v>3066.62</v>
+        <v>2994.72</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -7542,7 +7549,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>2889.24</v>
+        <v>2889.1</v>
       </c>
       <c r="F95" t="s">
         <v>1</v>
@@ -7551,7 +7558,7 @@
         <v>94</v>
       </c>
       <c r="H95">
-        <v>2886.21</v>
+        <v>2814.32</v>
       </c>
       <c r="J95" t="s">
         <v>2</v>
@@ -7571,7 +7578,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>2811.46</v>
+        <v>2810.95</v>
       </c>
       <c r="F96" t="s">
         <v>1</v>
@@ -7580,7 +7587,7 @@
         <v>95</v>
       </c>
       <c r="H96">
-        <v>2988.72</v>
+        <v>2886.25</v>
       </c>
       <c r="J96" t="s">
         <v>2</v>
@@ -7600,7 +7607,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>2883.21</v>
+        <v>2739.26</v>
       </c>
       <c r="F97" t="s">
         <v>1</v>
@@ -7618,7 +7625,7 @@
         <v>96</v>
       </c>
       <c r="L97">
-        <v>2994.71</v>
+        <v>1806.98</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
@@ -7629,7 +7636,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>3064.36</v>
+        <v>2889.33</v>
       </c>
       <c r="F98" t="s">
         <v>1</v>
@@ -7638,7 +7645,7 @@
         <v>97</v>
       </c>
       <c r="H98">
-        <v>2892.16</v>
+        <v>2814.11</v>
       </c>
       <c r="J98" t="s">
         <v>2</v>
@@ -7667,7 +7674,7 @@
         <v>98</v>
       </c>
       <c r="H99">
-        <v>3067.19</v>
+        <v>2814</v>
       </c>
       <c r="J99" t="s">
         <v>2</v>
@@ -7687,7 +7694,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>2883.09</v>
+        <v>2811.4</v>
       </c>
       <c r="F100" t="s">
         <v>1</v>
@@ -7696,7 +7703,7 @@
         <v>99</v>
       </c>
       <c r="H100">
-        <v>2814.42</v>
+        <v>2814.35</v>
       </c>
       <c r="J100" t="s">
         <v>2</v>
@@ -7705,7 +7712,7 @@
         <v>99</v>
       </c>
       <c r="L100">
-        <v>3073.45</v>
+        <v>2994.54</v>
       </c>
     </row>
   </sheetData>
